--- a/out/Frisksnit/Frisksnit Glostrup Hospital (GLO), Centralkøkken - Økologi statistik marts 2024.xlsx
+++ b/out/Frisksnit/Frisksnit Glostrup Hospital (GLO), Centralkøkken - Økologi statistik marts 2024.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -586,7 +586,7 @@
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% NrHeader,13% SingleMassHeader,13% TotalMassHeader,</t>
@@ -601,7 +601,7 @@
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
   </si>
   <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
+    <t>1% filler,19% containsTotalMass,19% containsSingleMass,19% containsProduct,19% SingleMassHeader,19% TotalMassHeader,</t>
   </si>
   <si>
     <t xml:space="preserve">VARENR, </t>
@@ -614,9 +614,6 @@
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -704,7 +701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -729,7 +726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
+        <fgColor rgb="FFB6B281"/>
       </patternFill>
     </fill>
     <fill>
@@ -3042,7 +3039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264A5840-19FC-4F01-B76F-1246D8E61CC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7E2000-EDDA-4895-AADF-97B63C32DA15}">
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
@@ -3811,7 +3808,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -3835,7 +3832,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -3859,7 +3856,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -4708,7 +4705,7 @@
       <c r="B72" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="43" t="s">
         <v>155</v>
       </c>
       <c r="D72" s="24">
@@ -4732,7 +4729,7 @@
       <c r="B73" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="43" t="s">
         <v>157</v>
       </c>
       <c r="D73" s="24">
@@ -4804,7 +4801,7 @@
       <c r="B76" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="36" t="s">
         <v>165</v>
       </c>
       <c r="D76" s="24">
@@ -4912,7 +4909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F3632C-1934-4820-BF5F-E1CD17C39AC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B931D0-DDFB-415D-ADFE-58797453523A}">
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
@@ -5740,7 +5737,7 @@
         <v>188</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D39" s="47" t="s">
         <v>7</v>
@@ -6623,19 +6620,19 @@
       <c r="A76" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="52" t="s">
         <v>165</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="55">
         <v>2</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="57">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6647,19 +6644,19 @@
       <c r="A77" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="52" t="s">
         <v>168</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
       </c>
-      <c r="E77" s="5">
-        <v>3</v>
-      </c>
-      <c r="F77" s="5">
+      <c r="E77" s="55">
+        <v>3</v>
+      </c>
+      <c r="F77" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -6671,15 +6668,15 @@
       <c r="A78" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="50">
         <v>3070</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="53" t="s">
         <v>83</v>
       </c>
       <c r="D78" s="2"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="6">
+      <c r="E78" s="56"/>
+      <c r="F78" s="58">
         <f>SUM(F40:F77)</f>
         <v>927</v>
       </c>
